--- a/owlcms/src/test/resources/testData/records/EWFRecords.xlsx
+++ b/owlcms/src/test/resources/testData/records/EWFRecords.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms4\owlcms\src\test\resources\testData\records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED54755-3B46-4F4B-869D-E1990F0980C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08BAA1C-1DCE-4D16-8554-5F083DA6C6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DF28E3F7-8829-40AC-8AE2-BA2E1FA35BEA}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{DF28E3F7-8829-40AC-8AE2-BA2E1FA35BEA}"/>
   </bookViews>
   <sheets>
     <sheet name="EWF SR M" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="95">
   <si>
     <t>bwcat</t>
   </si>
@@ -215,9 +215,6 @@
   </si>
   <si>
     <t>Eilat-ISR</t>
-  </si>
-  <si>
-    <t>EWF Standart</t>
   </si>
   <si>
     <t>MASSIDDA Sergio</t>
@@ -333,7 +330,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -426,17 +423,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -755,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3A71D5-0912-46D0-92EA-6C23C6C08BFF}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,25 +770,25 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>0</v>
@@ -820,7 +817,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -831,9 +828,15 @@
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="E2" s="3">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3">
+        <v>999</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
       <c r="H2" s="3">
         <v>55</v>
       </c>
@@ -855,7 +858,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
@@ -866,9 +869,15 @@
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="E3" s="3">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3">
+        <v>999</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
       <c r="H3" s="3">
         <v>55</v>
       </c>
@@ -890,7 +899,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
@@ -901,9 +910,15 @@
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="E4" s="3">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3">
+        <v>999</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
       <c r="H4" s="3">
         <v>55</v>
       </c>
@@ -925,7 +940,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>8</v>
@@ -936,9 +951,15 @@
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="E5" s="3">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3">
+        <v>999</v>
+      </c>
+      <c r="G5" s="3">
+        <v>55</v>
+      </c>
       <c r="H5" s="3">
         <v>61</v>
       </c>
@@ -960,7 +981,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
@@ -971,9 +992,15 @@
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="E6" s="3">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3">
+        <v>999</v>
+      </c>
+      <c r="G6" s="3">
+        <v>55</v>
+      </c>
       <c r="H6" s="3">
         <v>61</v>
       </c>
@@ -995,7 +1022,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
@@ -1006,9 +1033,15 @@
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="E7" s="3">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3">
+        <v>999</v>
+      </c>
+      <c r="G7" s="3">
+        <v>55</v>
+      </c>
       <c r="H7" s="3">
         <v>61</v>
       </c>
@@ -1030,7 +1063,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
@@ -1041,9 +1074,15 @@
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="E8" s="3">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3">
+        <v>999</v>
+      </c>
+      <c r="G8" s="3">
+        <v>61</v>
+      </c>
       <c r="H8" s="3">
         <v>67</v>
       </c>
@@ -1065,7 +1104,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
@@ -1076,9 +1115,15 @@
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="E9" s="3">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3">
+        <v>999</v>
+      </c>
+      <c r="G9" s="3">
+        <v>61</v>
+      </c>
       <c r="H9" s="3">
         <v>67</v>
       </c>
@@ -1100,7 +1145,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
@@ -1111,9 +1156,15 @@
       <c r="D10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="E10" s="3">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3">
+        <v>999</v>
+      </c>
+      <c r="G10" s="3">
+        <v>61</v>
+      </c>
       <c r="H10" s="3">
         <v>67</v>
       </c>
@@ -1135,7 +1186,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>8</v>
@@ -1146,9 +1197,15 @@
       <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="E11" s="3">
+        <v>15</v>
+      </c>
+      <c r="F11" s="3">
+        <v>999</v>
+      </c>
+      <c r="G11" s="3">
+        <v>67</v>
+      </c>
       <c r="H11" s="3">
         <v>73</v>
       </c>
@@ -1170,7 +1227,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>8</v>
@@ -1181,9 +1238,15 @@
       <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="E12" s="3">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3">
+        <v>999</v>
+      </c>
+      <c r="G12" s="3">
+        <v>67</v>
+      </c>
       <c r="H12" s="3">
         <v>73</v>
       </c>
@@ -1211,7 +1274,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>8</v>
@@ -1222,9 +1285,15 @@
       <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="E13" s="3">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3">
+        <v>999</v>
+      </c>
+      <c r="G13" s="3">
+        <v>67</v>
+      </c>
       <c r="H13" s="3">
         <v>73</v>
       </c>
@@ -1252,7 +1321,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>8</v>
@@ -1263,9 +1332,15 @@
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="E14" s="3">
+        <v>15</v>
+      </c>
+      <c r="F14" s="3">
+        <v>999</v>
+      </c>
+      <c r="G14" s="3">
+        <v>73</v>
+      </c>
       <c r="H14" s="3">
         <v>81</v>
       </c>
@@ -1287,7 +1362,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>8</v>
@@ -1298,9 +1373,15 @@
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="E15" s="3">
+        <v>15</v>
+      </c>
+      <c r="F15" s="3">
+        <v>999</v>
+      </c>
+      <c r="G15" s="3">
+        <v>73</v>
+      </c>
       <c r="H15" s="3">
         <v>81</v>
       </c>
@@ -1322,7 +1403,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>8</v>
@@ -1333,9 +1414,15 @@
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="E16" s="3">
+        <v>15</v>
+      </c>
+      <c r="F16" s="3">
+        <v>999</v>
+      </c>
+      <c r="G16" s="3">
+        <v>73</v>
+      </c>
       <c r="H16" s="3">
         <v>81</v>
       </c>
@@ -1357,7 +1444,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>8</v>
@@ -1368,9 +1455,15 @@
       <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="E17" s="3">
+        <v>15</v>
+      </c>
+      <c r="F17" s="3">
+        <v>999</v>
+      </c>
+      <c r="G17" s="3">
+        <v>81</v>
+      </c>
       <c r="H17" s="3">
         <v>89</v>
       </c>
@@ -1392,7 +1485,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>8</v>
@@ -1403,9 +1496,15 @@
       <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="E18" s="3">
+        <v>15</v>
+      </c>
+      <c r="F18" s="3">
+        <v>999</v>
+      </c>
+      <c r="G18" s="3">
+        <v>81</v>
+      </c>
       <c r="H18" s="3">
         <v>89</v>
       </c>
@@ -1427,7 +1526,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>8</v>
@@ -1438,9 +1537,15 @@
       <c r="D19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="E19" s="3">
+        <v>15</v>
+      </c>
+      <c r="F19" s="3">
+        <v>999</v>
+      </c>
+      <c r="G19" s="3">
+        <v>81</v>
+      </c>
       <c r="H19" s="3">
         <v>89</v>
       </c>
@@ -1462,7 +1567,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>8</v>
@@ -1473,9 +1578,15 @@
       <c r="D20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="E20" s="3">
+        <v>15</v>
+      </c>
+      <c r="F20" s="3">
+        <v>999</v>
+      </c>
+      <c r="G20" s="3">
+        <v>89</v>
+      </c>
       <c r="H20" s="3">
         <v>96</v>
       </c>
@@ -1497,7 +1608,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>8</v>
@@ -1508,9 +1619,15 @@
       <c r="D21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="E21" s="3">
+        <v>15</v>
+      </c>
+      <c r="F21" s="3">
+        <v>999</v>
+      </c>
+      <c r="G21" s="3">
+        <v>89</v>
+      </c>
       <c r="H21" s="3">
         <v>96</v>
       </c>
@@ -1538,7 +1655,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>8</v>
@@ -1549,9 +1666,15 @@
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="E22" s="3">
+        <v>15</v>
+      </c>
+      <c r="F22" s="3">
+        <v>999</v>
+      </c>
+      <c r="G22" s="3">
+        <v>89</v>
+      </c>
       <c r="H22" s="3">
         <v>96</v>
       </c>
@@ -1579,7 +1702,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>8</v>
@@ -1590,9 +1713,15 @@
       <c r="D23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="E23" s="3">
+        <v>15</v>
+      </c>
+      <c r="F23" s="3">
+        <v>999</v>
+      </c>
+      <c r="G23" s="3">
+        <v>96</v>
+      </c>
       <c r="H23" s="3">
         <v>102</v>
       </c>
@@ -1614,7 +1743,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>8</v>
@@ -1625,9 +1754,15 @@
       <c r="D24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="E24" s="3">
+        <v>15</v>
+      </c>
+      <c r="F24" s="3">
+        <v>999</v>
+      </c>
+      <c r="G24" s="3">
+        <v>96</v>
+      </c>
       <c r="H24" s="3">
         <v>102</v>
       </c>
@@ -1649,7 +1784,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>8</v>
@@ -1660,9 +1795,15 @@
       <c r="D25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="E25" s="3">
+        <v>15</v>
+      </c>
+      <c r="F25" s="3">
+        <v>999</v>
+      </c>
+      <c r="G25" s="3">
+        <v>96</v>
+      </c>
       <c r="H25" s="3">
         <v>102</v>
       </c>
@@ -1684,7 +1825,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>8</v>
@@ -1695,9 +1836,15 @@
       <c r="D26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="E26" s="3">
+        <v>15</v>
+      </c>
+      <c r="F26" s="3">
+        <v>999</v>
+      </c>
+      <c r="G26" s="3">
+        <v>102</v>
+      </c>
       <c r="H26" s="3">
         <v>109</v>
       </c>
@@ -1725,7 +1872,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>8</v>
@@ -1736,9 +1883,15 @@
       <c r="D27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="E27" s="3">
+        <v>15</v>
+      </c>
+      <c r="F27" s="3">
+        <v>999</v>
+      </c>
+      <c r="G27" s="3">
+        <v>102</v>
+      </c>
       <c r="H27" s="3">
         <v>109</v>
       </c>
@@ -1766,7 +1919,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>8</v>
@@ -1777,9 +1930,15 @@
       <c r="D28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="E28" s="3">
+        <v>15</v>
+      </c>
+      <c r="F28" s="3">
+        <v>999</v>
+      </c>
+      <c r="G28" s="3">
+        <v>102</v>
+      </c>
       <c r="H28" s="3">
         <v>109</v>
       </c>
@@ -1807,7 +1966,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>8</v>
@@ -1818,9 +1977,15 @@
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="E29" s="3">
+        <v>15</v>
+      </c>
+      <c r="F29" s="3">
+        <v>999</v>
+      </c>
+      <c r="G29" s="3">
+        <v>109</v>
+      </c>
       <c r="H29" s="3">
         <v>999</v>
       </c>
@@ -1848,7 +2013,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>8</v>
@@ -1859,9 +2024,15 @@
       <c r="D30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="E30" s="3">
+        <v>15</v>
+      </c>
+      <c r="F30" s="3">
+        <v>999</v>
+      </c>
+      <c r="G30" s="3">
+        <v>109</v>
+      </c>
       <c r="H30" s="3">
         <v>999</v>
       </c>
@@ -1889,7 +2060,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>8</v>
@@ -1900,9 +2071,15 @@
       <c r="D31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="E31" s="3">
+        <v>15</v>
+      </c>
+      <c r="F31" s="3">
+        <v>999</v>
+      </c>
+      <c r="G31" s="3">
+        <v>109</v>
+      </c>
       <c r="H31" s="3">
         <v>999</v>
       </c>
@@ -1937,8 +2114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AD8EDA-77E8-45C8-BBB8-3D78A58D0E83}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:T1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1955,25 +2132,25 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -2002,20 +2179,26 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="E2" s="3">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3">
+        <v>999</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
       <c r="H2" s="3">
         <v>45</v>
       </c>
@@ -2037,20 +2220,26 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="E3" s="3">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3">
+        <v>999</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
       <c r="H3" s="3">
         <v>45</v>
       </c>
@@ -2072,20 +2261,26 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="E4" s="3">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3">
+        <v>999</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
       <c r="H4" s="3">
         <v>45</v>
       </c>
@@ -2107,20 +2302,26 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="E5" s="3">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3">
+        <v>999</v>
+      </c>
+      <c r="G5" s="3">
+        <v>45</v>
+      </c>
       <c r="H5" s="3">
         <v>49</v>
       </c>
@@ -2142,20 +2343,26 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="E6" s="3">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3">
+        <v>999</v>
+      </c>
+      <c r="G6" s="3">
+        <v>45</v>
+      </c>
       <c r="H6" s="3">
         <v>49</v>
       </c>
@@ -2177,20 +2384,26 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="E7" s="3">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3">
+        <v>999</v>
+      </c>
+      <c r="G7" s="3">
+        <v>45</v>
+      </c>
       <c r="H7" s="3">
         <v>49</v>
       </c>
@@ -2212,20 +2425,26 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="E8" s="3">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3">
+        <v>999</v>
+      </c>
+      <c r="G8" s="3">
+        <v>49</v>
+      </c>
       <c r="H8" s="3">
         <v>55</v>
       </c>
@@ -2247,20 +2466,26 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="E9" s="3">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3">
+        <v>999</v>
+      </c>
+      <c r="G9" s="3">
+        <v>49</v>
+      </c>
       <c r="H9" s="3">
         <v>55</v>
       </c>
@@ -2288,20 +2513,26 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="E10" s="3">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3">
+        <v>999</v>
+      </c>
+      <c r="G10" s="3">
+        <v>49</v>
+      </c>
       <c r="H10" s="3">
         <v>55</v>
       </c>
@@ -2329,20 +2560,26 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="E11" s="3">
+        <v>15</v>
+      </c>
+      <c r="F11" s="3">
+        <v>999</v>
+      </c>
+      <c r="G11" s="3">
+        <v>55</v>
+      </c>
       <c r="H11" s="3">
         <v>59</v>
       </c>
@@ -2370,20 +2607,26 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="E12" s="3">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3">
+        <v>999</v>
+      </c>
+      <c r="G12" s="3">
+        <v>55</v>
+      </c>
       <c r="H12" s="3">
         <v>59</v>
       </c>
@@ -2405,20 +2648,26 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="E13" s="3">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3">
+        <v>999</v>
+      </c>
+      <c r="G13" s="3">
+        <v>55</v>
+      </c>
       <c r="H13" s="3">
         <v>59</v>
       </c>
@@ -2440,20 +2689,26 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="E14" s="3">
+        <v>15</v>
+      </c>
+      <c r="F14" s="3">
+        <v>999</v>
+      </c>
+      <c r="G14" s="3">
+        <v>59</v>
+      </c>
       <c r="H14" s="3">
         <v>64</v>
       </c>
@@ -2481,20 +2736,26 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="E15" s="3">
+        <v>15</v>
+      </c>
+      <c r="F15" s="3">
+        <v>999</v>
+      </c>
+      <c r="G15" s="3">
+        <v>59</v>
+      </c>
       <c r="H15" s="3">
         <v>64</v>
       </c>
@@ -2522,20 +2783,26 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="E16" s="3">
+        <v>15</v>
+      </c>
+      <c r="F16" s="3">
+        <v>999</v>
+      </c>
+      <c r="G16" s="3">
+        <v>59</v>
+      </c>
       <c r="H16" s="3">
         <v>64</v>
       </c>
@@ -2563,20 +2830,26 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="E17" s="3">
+        <v>15</v>
+      </c>
+      <c r="F17" s="3">
+        <v>999</v>
+      </c>
+      <c r="G17" s="3">
+        <v>64</v>
+      </c>
       <c r="H17" s="3">
         <v>71</v>
       </c>
@@ -2598,20 +2871,26 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="E18" s="3">
+        <v>15</v>
+      </c>
+      <c r="F18" s="3">
+        <v>999</v>
+      </c>
+      <c r="G18" s="3">
+        <v>64</v>
+      </c>
       <c r="H18" s="3">
         <v>71</v>
       </c>
@@ -2633,20 +2912,26 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="E19" s="3">
+        <v>15</v>
+      </c>
+      <c r="F19" s="3">
+        <v>999</v>
+      </c>
+      <c r="G19" s="3">
+        <v>64</v>
+      </c>
       <c r="H19" s="3">
         <v>71</v>
       </c>
@@ -2668,20 +2953,26 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="E20" s="3">
+        <v>15</v>
+      </c>
+      <c r="F20" s="3">
+        <v>999</v>
+      </c>
+      <c r="G20" s="3">
+        <v>71</v>
+      </c>
       <c r="H20" s="3">
         <v>76</v>
       </c>
@@ -2703,20 +2994,26 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="E21" s="3">
+        <v>15</v>
+      </c>
+      <c r="F21" s="3">
+        <v>999</v>
+      </c>
+      <c r="G21" s="3">
+        <v>71</v>
+      </c>
       <c r="H21" s="3">
         <v>76</v>
       </c>
@@ -2738,20 +3035,26 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="E22" s="3">
+        <v>15</v>
+      </c>
+      <c r="F22" s="3">
+        <v>999</v>
+      </c>
+      <c r="G22" s="3">
+        <v>71</v>
+      </c>
       <c r="H22" s="3">
         <v>76</v>
       </c>
@@ -2773,20 +3076,26 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="E23" s="3">
+        <v>15</v>
+      </c>
+      <c r="F23" s="3">
+        <v>999</v>
+      </c>
+      <c r="G23" s="3">
+        <v>76</v>
+      </c>
       <c r="H23" s="3">
         <v>81</v>
       </c>
@@ -2808,20 +3117,26 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="E24" s="3">
+        <v>15</v>
+      </c>
+      <c r="F24" s="3">
+        <v>999</v>
+      </c>
+      <c r="G24" s="3">
+        <v>76</v>
+      </c>
       <c r="H24" s="3">
         <v>81</v>
       </c>
@@ -2843,20 +3158,26 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="E25" s="3">
+        <v>15</v>
+      </c>
+      <c r="F25" s="3">
+        <v>999</v>
+      </c>
+      <c r="G25" s="3">
+        <v>76</v>
+      </c>
       <c r="H25" s="3">
         <v>81</v>
       </c>
@@ -2878,20 +3199,26 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="E26" s="3">
+        <v>15</v>
+      </c>
+      <c r="F26" s="3">
+        <v>999</v>
+      </c>
+      <c r="G26" s="3">
+        <v>81</v>
+      </c>
       <c r="H26" s="3">
         <v>87</v>
       </c>
@@ -2913,20 +3240,26 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="E27" s="3">
+        <v>15</v>
+      </c>
+      <c r="F27" s="3">
+        <v>999</v>
+      </c>
+      <c r="G27" s="3">
+        <v>81</v>
+      </c>
       <c r="H27" s="3">
         <v>87</v>
       </c>
@@ -2948,20 +3281,26 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="E28" s="3">
+        <v>15</v>
+      </c>
+      <c r="F28" s="3">
+        <v>999</v>
+      </c>
+      <c r="G28" s="3">
+        <v>81</v>
+      </c>
       <c r="H28" s="3">
         <v>87</v>
       </c>
@@ -2983,20 +3322,26 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="E29" s="3">
+        <v>15</v>
+      </c>
+      <c r="F29" s="3">
+        <v>999</v>
+      </c>
+      <c r="G29" s="3">
+        <v>87</v>
+      </c>
       <c r="H29" s="3">
         <v>999</v>
       </c>
@@ -3024,20 +3369,26 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="E30" s="3">
+        <v>15</v>
+      </c>
+      <c r="F30" s="3">
+        <v>999</v>
+      </c>
+      <c r="G30" s="3">
+        <v>87</v>
+      </c>
       <c r="H30" s="3">
         <v>999</v>
       </c>
@@ -3065,20 +3416,26 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="E31" s="3">
+        <v>15</v>
+      </c>
+      <c r="F31" s="3">
+        <v>999</v>
+      </c>
+      <c r="G31" s="3">
+        <v>87</v>
+      </c>
       <c r="H31" s="3">
         <v>999</v>
       </c>
@@ -3115,7 +3472,7 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:T1048576"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3134,25 +3491,25 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -3184,7 +3541,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -3195,6 +3552,15 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
       <c r="H2">
         <v>55</v>
       </c>
@@ -3220,13 +3586,13 @@
         <v>2018</v>
       </c>
       <c r="T2" s="19">
-        <f>DATE(R2,Q2,P2)</f>
+        <f t="shared" ref="T2:T31" si="0">DATE(R2,Q2,P2)</f>
         <v>43391</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
@@ -3237,6 +3603,15 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
       <c r="H3">
         <v>55</v>
       </c>
@@ -3271,13 +3646,13 @@
         <v>2018</v>
       </c>
       <c r="T3" s="19">
-        <f>DATE(R3,Q3,P3)</f>
+        <f t="shared" si="0"/>
         <v>43391</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
@@ -3288,6 +3663,15 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
       <c r="H4">
         <v>55</v>
       </c>
@@ -3322,13 +3706,13 @@
         <v>2018</v>
       </c>
       <c r="T4" s="19">
-        <f>DATE(R4,Q4,P4)</f>
+        <f t="shared" si="0"/>
         <v>43391</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>8</v>
@@ -3339,6 +3723,15 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3">
+        <v>55</v>
+      </c>
       <c r="H5">
         <v>61</v>
       </c>
@@ -3364,13 +3757,13 @@
         <v>2018</v>
       </c>
       <c r="T5" s="19">
-        <f>DATE(R5,Q5,P5)</f>
+        <f t="shared" si="0"/>
         <v>43391</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
@@ -3381,6 +3774,15 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3">
+        <v>55</v>
+      </c>
       <c r="H6">
         <v>61</v>
       </c>
@@ -3406,13 +3808,13 @@
         <v>2018</v>
       </c>
       <c r="T6" s="19">
-        <f>DATE(R6,Q6,P6)</f>
+        <f t="shared" si="0"/>
         <v>43391</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
@@ -3423,6 +3825,15 @@
       <c r="D7" t="s">
         <v>10</v>
       </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7" s="3">
+        <v>55</v>
+      </c>
       <c r="H7">
         <v>61</v>
       </c>
@@ -3448,13 +3859,13 @@
         <v>2018</v>
       </c>
       <c r="T7" s="19">
-        <f>DATE(R7,Q7,P7)</f>
+        <f t="shared" si="0"/>
         <v>43391</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
@@ -3465,6 +3876,15 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3">
+        <v>61</v>
+      </c>
       <c r="H8">
         <v>67</v>
       </c>
@@ -3487,7 +3907,7 @@
         <v>44291</v>
       </c>
       <c r="O8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P8" s="25">
         <v>5</v>
@@ -3499,13 +3919,13 @@
         <v>2021</v>
       </c>
       <c r="T8" s="19">
-        <f>DATE(R8,Q8,P8)</f>
+        <f t="shared" si="0"/>
         <v>44291</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
@@ -3516,6 +3936,15 @@
       <c r="D9" t="s">
         <v>10</v>
       </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9" s="3">
+        <v>61</v>
+      </c>
       <c r="H9">
         <v>67</v>
       </c>
@@ -3550,13 +3979,13 @@
         <v>2018</v>
       </c>
       <c r="T9" s="19">
-        <f>DATE(R9,Q9,P9)</f>
+        <f t="shared" si="0"/>
         <v>43407</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
@@ -3567,6 +3996,15 @@
       <c r="D10" t="s">
         <v>10</v>
       </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10" s="3">
+        <v>61</v>
+      </c>
       <c r="H10">
         <v>67</v>
       </c>
@@ -3601,13 +4039,13 @@
         <v>2018</v>
       </c>
       <c r="T10" s="19">
-        <f>DATE(R10,Q10,P10)</f>
+        <f t="shared" si="0"/>
         <v>43407</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>8</v>
@@ -3618,6 +4056,15 @@
       <c r="D11" t="s">
         <v>10</v>
       </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11" s="3">
+        <v>67</v>
+      </c>
       <c r="H11">
         <v>73</v>
       </c>
@@ -3652,13 +4099,13 @@
         <v>2018</v>
       </c>
       <c r="T11" s="19">
-        <f>DATE(R11,Q11,P11)</f>
+        <f t="shared" si="0"/>
         <v>43408</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>8</v>
@@ -3669,6 +4116,15 @@
       <c r="D12" t="s">
         <v>10</v>
       </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12" s="3">
+        <v>67</v>
+      </c>
       <c r="H12">
         <v>73</v>
       </c>
@@ -3703,13 +4159,13 @@
         <v>2018</v>
       </c>
       <c r="T12" s="19">
-        <f>DATE(R12,Q12,P12)</f>
+        <f t="shared" si="0"/>
         <v>43391</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>8</v>
@@ -3720,6 +4176,15 @@
       <c r="D13" t="s">
         <v>10</v>
       </c>
+      <c r="E13">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13" s="3">
+        <v>67</v>
+      </c>
       <c r="H13">
         <v>73</v>
       </c>
@@ -3754,13 +4219,13 @@
         <v>2018</v>
       </c>
       <c r="T13" s="19">
-        <f>DATE(R13,Q13,P13)</f>
+        <f t="shared" si="0"/>
         <v>43391</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>8</v>
@@ -3771,6 +4236,15 @@
       <c r="D14" t="s">
         <v>10</v>
       </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14" s="3">
+        <v>73</v>
+      </c>
       <c r="H14">
         <v>81</v>
       </c>
@@ -3805,13 +4279,13 @@
         <v>2020</v>
       </c>
       <c r="T14" s="19">
-        <f>DATE(R14,Q14,P14)</f>
+        <f t="shared" si="0"/>
         <v>43859</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>8</v>
@@ -3822,6 +4296,15 @@
       <c r="D15" t="s">
         <v>10</v>
       </c>
+      <c r="E15">
+        <v>15</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15" s="3">
+        <v>73</v>
+      </c>
       <c r="H15">
         <v>81</v>
       </c>
@@ -3856,13 +4339,13 @@
         <v>2020</v>
       </c>
       <c r="T15" s="19">
-        <f>DATE(R15,Q15,P15)</f>
+        <f t="shared" si="0"/>
         <v>43859</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>8</v>
@@ -3873,6 +4356,15 @@
       <c r="D16" t="s">
         <v>10</v>
       </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16" s="3">
+        <v>73</v>
+      </c>
       <c r="H16">
         <v>81</v>
       </c>
@@ -3907,13 +4399,13 @@
         <v>2020</v>
       </c>
       <c r="T16" s="19">
-        <f>DATE(R16,Q16,P16)</f>
+        <f t="shared" si="0"/>
         <v>43859</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>8</v>
@@ -3924,6 +4416,15 @@
       <c r="D17" t="s">
         <v>10</v>
       </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17" s="3">
+        <v>81</v>
+      </c>
       <c r="H17">
         <v>89</v>
       </c>
@@ -3955,13 +4456,13 @@
         <v>2018</v>
       </c>
       <c r="T17" s="19">
-        <f>DATE(R17,Q17,P17)</f>
+        <f t="shared" si="0"/>
         <v>43391</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>8</v>
@@ -3972,6 +4473,15 @@
       <c r="D18" t="s">
         <v>10</v>
       </c>
+      <c r="E18">
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+      <c r="G18" s="3">
+        <v>81</v>
+      </c>
       <c r="H18">
         <v>89</v>
       </c>
@@ -4006,13 +4516,13 @@
         <v>2018</v>
       </c>
       <c r="T18" s="19">
-        <f>DATE(R18,Q18,P18)</f>
+        <f t="shared" si="0"/>
         <v>43391</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>8</v>
@@ -4023,6 +4533,15 @@
       <c r="D19" t="s">
         <v>10</v>
       </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19" s="3">
+        <v>81</v>
+      </c>
       <c r="H19">
         <v>89</v>
       </c>
@@ -4057,13 +4576,13 @@
         <v>2018</v>
       </c>
       <c r="T19" s="19">
-        <f>DATE(R19,Q19,P19)</f>
+        <f t="shared" si="0"/>
         <v>43391</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>8</v>
@@ -4074,6 +4593,15 @@
       <c r="D20" t="s">
         <v>10</v>
       </c>
+      <c r="E20">
+        <v>15</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20" s="3">
+        <v>89</v>
+      </c>
       <c r="H20">
         <v>96</v>
       </c>
@@ -4108,13 +4636,13 @@
         <v>2018</v>
       </c>
       <c r="T20" s="19">
-        <f>DATE(R20,Q20,P20)</f>
+        <f t="shared" si="0"/>
         <v>43391</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>8</v>
@@ -4125,6 +4653,15 @@
       <c r="D21" t="s">
         <v>10</v>
       </c>
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21" s="3">
+        <v>89</v>
+      </c>
       <c r="H21">
         <v>96</v>
       </c>
@@ -4159,13 +4696,13 @@
         <v>2018</v>
       </c>
       <c r="T21" s="19">
-        <f>DATE(R21,Q21,P21)</f>
+        <f t="shared" si="0"/>
         <v>43391</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>8</v>
@@ -4176,6 +4713,15 @@
       <c r="D22" t="s">
         <v>10</v>
       </c>
+      <c r="E22">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22" s="3">
+        <v>89</v>
+      </c>
       <c r="H22">
         <v>96</v>
       </c>
@@ -4210,13 +4756,13 @@
         <v>2018</v>
       </c>
       <c r="T22" s="19">
-        <f>DATE(R22,Q22,P22)</f>
+        <f t="shared" si="0"/>
         <v>43391</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>8</v>
@@ -4227,6 +4773,15 @@
       <c r="D23" t="s">
         <v>10</v>
       </c>
+      <c r="E23">
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23" s="3">
+        <v>96</v>
+      </c>
       <c r="H23">
         <v>102</v>
       </c>
@@ -4252,13 +4807,13 @@
         <v>2018</v>
       </c>
       <c r="T23" s="19">
-        <f>DATE(R23,Q23,P23)</f>
+        <f t="shared" si="0"/>
         <v>43391</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>8</v>
@@ -4269,6 +4824,15 @@
       <c r="D24" t="s">
         <v>10</v>
       </c>
+      <c r="E24">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="G24" s="3">
+        <v>96</v>
+      </c>
       <c r="H24">
         <v>102</v>
       </c>
@@ -4294,13 +4858,13 @@
         <v>2018</v>
       </c>
       <c r="T24" s="19">
-        <f>DATE(R24,Q24,P24)</f>
+        <f t="shared" si="0"/>
         <v>43391</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>8</v>
@@ -4311,6 +4875,15 @@
       <c r="D25" t="s">
         <v>10</v>
       </c>
+      <c r="E25">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <v>20</v>
+      </c>
+      <c r="G25" s="3">
+        <v>96</v>
+      </c>
       <c r="H25">
         <v>102</v>
       </c>
@@ -4336,13 +4909,13 @@
         <v>2018</v>
       </c>
       <c r="T25" s="19">
-        <f>DATE(R25,Q25,P25)</f>
+        <f t="shared" si="0"/>
         <v>43391</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>8</v>
@@ -4353,6 +4926,15 @@
       <c r="D26" t="s">
         <v>10</v>
       </c>
+      <c r="E26">
+        <v>15</v>
+      </c>
+      <c r="F26">
+        <v>20</v>
+      </c>
+      <c r="G26" s="3">
+        <v>102</v>
+      </c>
       <c r="H26">
         <v>109</v>
       </c>
@@ -4378,13 +4960,13 @@
         <v>2018</v>
       </c>
       <c r="T26" s="19">
-        <f>DATE(R26,Q26,P26)</f>
+        <f t="shared" si="0"/>
         <v>43391</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>8</v>
@@ -4395,6 +4977,15 @@
       <c r="D27" t="s">
         <v>10</v>
       </c>
+      <c r="E27">
+        <v>15</v>
+      </c>
+      <c r="F27">
+        <v>20</v>
+      </c>
+      <c r="G27" s="3">
+        <v>102</v>
+      </c>
       <c r="H27">
         <v>109</v>
       </c>
@@ -4420,13 +5011,13 @@
         <v>2018</v>
       </c>
       <c r="T27" s="19">
-        <f>DATE(R27,Q27,P27)</f>
+        <f t="shared" si="0"/>
         <v>43391</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>8</v>
@@ -4437,6 +5028,15 @@
       <c r="D28" t="s">
         <v>10</v>
       </c>
+      <c r="E28">
+        <v>15</v>
+      </c>
+      <c r="F28">
+        <v>20</v>
+      </c>
+      <c r="G28" s="3">
+        <v>102</v>
+      </c>
       <c r="H28">
         <v>109</v>
       </c>
@@ -4462,13 +5062,13 @@
         <v>2018</v>
       </c>
       <c r="T28" s="19">
-        <f>DATE(R28,Q28,P28)</f>
+        <f t="shared" si="0"/>
         <v>43391</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>8</v>
@@ -4479,6 +5079,15 @@
       <c r="D29" t="s">
         <v>10</v>
       </c>
+      <c r="E29">
+        <v>15</v>
+      </c>
+      <c r="F29">
+        <v>20</v>
+      </c>
+      <c r="G29" s="3">
+        <v>109</v>
+      </c>
       <c r="H29">
         <v>999</v>
       </c>
@@ -4513,13 +5122,13 @@
         <v>2019</v>
       </c>
       <c r="T29" s="19">
-        <f>DATE(R29,Q29,P29)</f>
+        <f t="shared" si="0"/>
         <v>43568</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>8</v>
@@ -4530,6 +5139,15 @@
       <c r="D30" t="s">
         <v>10</v>
       </c>
+      <c r="E30">
+        <v>15</v>
+      </c>
+      <c r="F30">
+        <v>20</v>
+      </c>
+      <c r="G30" s="3">
+        <v>109</v>
+      </c>
       <c r="H30">
         <v>999</v>
       </c>
@@ -4555,13 +5173,13 @@
         <v>2018</v>
       </c>
       <c r="T30" s="19">
-        <f>DATE(R30,Q30,P30)</f>
+        <f t="shared" si="0"/>
         <v>43414</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>8</v>
@@ -4572,6 +5190,15 @@
       <c r="D31" t="s">
         <v>10</v>
       </c>
+      <c r="E31">
+        <v>15</v>
+      </c>
+      <c r="F31">
+        <v>20</v>
+      </c>
+      <c r="G31" s="3">
+        <v>109</v>
+      </c>
       <c r="H31">
         <v>999</v>
       </c>
@@ -4606,7 +5233,7 @@
         <v>2019</v>
       </c>
       <c r="T31" s="19">
-        <f>DATE(R31,Q31,P31)</f>
+        <f t="shared" si="0"/>
         <v>43568</v>
       </c>
     </row>
@@ -4620,7 +5247,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4637,25 +5264,25 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -4684,7 +5311,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>8</v>
@@ -4695,10 +5322,16 @@
       <c r="D2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2">
+      <c r="E2" s="11">
+        <v>15</v>
+      </c>
+      <c r="F2" s="11">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
         <v>45</v>
       </c>
       <c r="I2" s="12" t="s">
@@ -4718,7 +5351,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>8</v>
@@ -4729,10 +5362,16 @@
       <c r="D3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3">
+      <c r="E3" s="11">
+        <v>15</v>
+      </c>
+      <c r="F3" s="11">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
         <v>45</v>
       </c>
       <c r="I3" s="12" t="s">
@@ -4752,7 +5391,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>8</v>
@@ -4763,10 +5402,16 @@
       <c r="D4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4">
+      <c r="E4" s="11">
+        <v>15</v>
+      </c>
+      <c r="F4" s="11">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
         <v>45</v>
       </c>
       <c r="I4" s="12" t="s">
@@ -4786,7 +5431,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>8</v>
@@ -4797,10 +5442,16 @@
       <c r="D5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5">
+      <c r="E5" s="11">
+        <v>15</v>
+      </c>
+      <c r="F5" s="11">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3">
+        <v>45</v>
+      </c>
+      <c r="H5" s="3">
         <v>49</v>
       </c>
       <c r="I5" s="12" t="s">
@@ -4827,7 +5478,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>8</v>
@@ -4838,10 +5489,16 @@
       <c r="D6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6">
+      <c r="E6" s="11">
+        <v>15</v>
+      </c>
+      <c r="F6" s="11">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3">
+        <v>45</v>
+      </c>
+      <c r="H6" s="3">
         <v>49</v>
       </c>
       <c r="I6" s="12" t="s">
@@ -4861,7 +5518,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>8</v>
@@ -4872,10 +5529,16 @@
       <c r="D7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7">
+      <c r="E7" s="11">
+        <v>15</v>
+      </c>
+      <c r="F7" s="11">
+        <v>20</v>
+      </c>
+      <c r="G7" s="3">
+        <v>45</v>
+      </c>
+      <c r="H7" s="3">
         <v>49</v>
       </c>
       <c r="I7" s="12" t="s">
@@ -4895,7 +5558,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>8</v>
@@ -4906,10 +5569,16 @@
       <c r="D8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8">
+      <c r="E8" s="11">
+        <v>15</v>
+      </c>
+      <c r="F8" s="11">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3">
+        <v>49</v>
+      </c>
+      <c r="H8" s="3">
         <v>55</v>
       </c>
       <c r="I8" s="12" t="s">
@@ -4936,7 +5605,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>8</v>
@@ -4947,10 +5616,16 @@
       <c r="D9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9">
+      <c r="E9" s="11">
+        <v>15</v>
+      </c>
+      <c r="F9" s="11">
+        <v>20</v>
+      </c>
+      <c r="G9" s="3">
+        <v>49</v>
+      </c>
+      <c r="H9" s="3">
         <v>55</v>
       </c>
       <c r="I9" s="12" t="s">
@@ -4970,7 +5645,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>8</v>
@@ -4981,10 +5656,16 @@
       <c r="D10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10">
+      <c r="E10" s="11">
+        <v>15</v>
+      </c>
+      <c r="F10" s="11">
+        <v>20</v>
+      </c>
+      <c r="G10" s="3">
+        <v>49</v>
+      </c>
+      <c r="H10" s="3">
         <v>55</v>
       </c>
       <c r="I10" s="12" t="s">
@@ -5011,7 +5692,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>8</v>
@@ -5022,10 +5703,16 @@
       <c r="D11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11">
+      <c r="E11" s="11">
+        <v>15</v>
+      </c>
+      <c r="F11" s="11">
+        <v>20</v>
+      </c>
+      <c r="G11" s="3">
+        <v>55</v>
+      </c>
+      <c r="H11" s="3">
         <v>59</v>
       </c>
       <c r="I11" s="12" t="s">
@@ -5052,7 +5739,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>8</v>
@@ -5063,10 +5750,16 @@
       <c r="D12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12">
+      <c r="E12" s="11">
+        <v>15</v>
+      </c>
+      <c r="F12" s="11">
+        <v>20</v>
+      </c>
+      <c r="G12" s="3">
+        <v>55</v>
+      </c>
+      <c r="H12" s="3">
         <v>59</v>
       </c>
       <c r="I12" s="12" t="s">
@@ -5093,7 +5786,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>8</v>
@@ -5104,10 +5797,16 @@
       <c r="D13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13">
+      <c r="E13" s="11">
+        <v>15</v>
+      </c>
+      <c r="F13" s="11">
+        <v>20</v>
+      </c>
+      <c r="G13" s="3">
+        <v>55</v>
+      </c>
+      <c r="H13" s="3">
         <v>59</v>
       </c>
       <c r="I13" s="12" t="s">
@@ -5134,7 +5833,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>8</v>
@@ -5145,10 +5844,16 @@
       <c r="D14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14">
+      <c r="E14" s="11">
+        <v>15</v>
+      </c>
+      <c r="F14" s="11">
+        <v>20</v>
+      </c>
+      <c r="G14" s="3">
+        <v>59</v>
+      </c>
+      <c r="H14" s="3">
         <v>64</v>
       </c>
       <c r="I14" s="12" t="s">
@@ -5168,7 +5873,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>8</v>
@@ -5179,10 +5884,16 @@
       <c r="D15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15">
+      <c r="E15" s="11">
+        <v>15</v>
+      </c>
+      <c r="F15" s="11">
+        <v>20</v>
+      </c>
+      <c r="G15" s="3">
+        <v>59</v>
+      </c>
+      <c r="H15" s="3">
         <v>64</v>
       </c>
       <c r="I15" s="12" t="s">
@@ -5202,7 +5913,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>8</v>
@@ -5213,10 +5924,16 @@
       <c r="D16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16">
+      <c r="E16" s="11">
+        <v>15</v>
+      </c>
+      <c r="F16" s="11">
+        <v>20</v>
+      </c>
+      <c r="G16" s="3">
+        <v>59</v>
+      </c>
+      <c r="H16" s="3">
         <v>64</v>
       </c>
       <c r="I16" s="12" t="s">
@@ -5236,7 +5953,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>8</v>
@@ -5247,10 +5964,16 @@
       <c r="D17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17">
+      <c r="E17" s="11">
+        <v>15</v>
+      </c>
+      <c r="F17" s="11">
+        <v>20</v>
+      </c>
+      <c r="G17" s="3">
+        <v>64</v>
+      </c>
+      <c r="H17" s="3">
         <v>71</v>
       </c>
       <c r="I17" s="12" t="s">
@@ -5270,7 +5993,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>8</v>
@@ -5281,10 +6004,16 @@
       <c r="D18" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18">
+      <c r="E18" s="11">
+        <v>15</v>
+      </c>
+      <c r="F18" s="11">
+        <v>20</v>
+      </c>
+      <c r="G18" s="3">
+        <v>64</v>
+      </c>
+      <c r="H18" s="3">
         <v>71</v>
       </c>
       <c r="I18" s="12" t="s">
@@ -5304,7 +6033,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>8</v>
@@ -5315,10 +6044,16 @@
       <c r="D19" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19">
+      <c r="E19" s="11">
+        <v>15</v>
+      </c>
+      <c r="F19" s="11">
+        <v>20</v>
+      </c>
+      <c r="G19" s="3">
+        <v>64</v>
+      </c>
+      <c r="H19" s="3">
         <v>71</v>
       </c>
       <c r="I19" s="12" t="s">
@@ -5338,7 +6073,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>8</v>
@@ -5349,10 +6084,16 @@
       <c r="D20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20">
+      <c r="E20" s="11">
+        <v>15</v>
+      </c>
+      <c r="F20" s="11">
+        <v>20</v>
+      </c>
+      <c r="G20" s="3">
+        <v>71</v>
+      </c>
+      <c r="H20" s="3">
         <v>76</v>
       </c>
       <c r="I20" s="12" t="s">
@@ -5372,7 +6113,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>8</v>
@@ -5383,10 +6124,16 @@
       <c r="D21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21">
+      <c r="E21" s="11">
+        <v>15</v>
+      </c>
+      <c r="F21" s="11">
+        <v>20</v>
+      </c>
+      <c r="G21" s="3">
+        <v>71</v>
+      </c>
+      <c r="H21" s="3">
         <v>76</v>
       </c>
       <c r="I21" s="12" t="s">
@@ -5406,7 +6153,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>8</v>
@@ -5417,10 +6164,16 @@
       <c r="D22" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22">
+      <c r="E22" s="11">
+        <v>15</v>
+      </c>
+      <c r="F22" s="11">
+        <v>20</v>
+      </c>
+      <c r="G22" s="3">
+        <v>71</v>
+      </c>
+      <c r="H22" s="3">
         <v>76</v>
       </c>
       <c r="I22" s="12" t="s">
@@ -5440,7 +6193,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>8</v>
@@ -5451,10 +6204,16 @@
       <c r="D23" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23">
+      <c r="E23" s="11">
+        <v>15</v>
+      </c>
+      <c r="F23" s="11">
+        <v>20</v>
+      </c>
+      <c r="G23" s="3">
+        <v>76</v>
+      </c>
+      <c r="H23" s="3">
         <v>81</v>
       </c>
       <c r="I23" s="12" t="s">
@@ -5474,7 +6233,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>8</v>
@@ -5485,10 +6244,16 @@
       <c r="D24" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24">
+      <c r="E24" s="11">
+        <v>15</v>
+      </c>
+      <c r="F24" s="11">
+        <v>20</v>
+      </c>
+      <c r="G24" s="3">
+        <v>76</v>
+      </c>
+      <c r="H24" s="3">
         <v>81</v>
       </c>
       <c r="I24" s="12" t="s">
@@ -5508,7 +6273,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>8</v>
@@ -5519,10 +6284,16 @@
       <c r="D25" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25">
+      <c r="E25" s="11">
+        <v>15</v>
+      </c>
+      <c r="F25" s="11">
+        <v>20</v>
+      </c>
+      <c r="G25" s="3">
+        <v>76</v>
+      </c>
+      <c r="H25" s="3">
         <v>81</v>
       </c>
       <c r="I25" s="12" t="s">
@@ -5542,7 +6313,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>8</v>
@@ -5553,10 +6324,16 @@
       <c r="D26" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26">
+      <c r="E26" s="11">
+        <v>15</v>
+      </c>
+      <c r="F26" s="11">
+        <v>20</v>
+      </c>
+      <c r="G26" s="3">
+        <v>81</v>
+      </c>
+      <c r="H26" s="3">
         <v>87</v>
       </c>
       <c r="I26" s="12" t="s">
@@ -5576,7 +6353,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>8</v>
@@ -5587,10 +6364,16 @@
       <c r="D27" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27">
+      <c r="E27" s="11">
+        <v>15</v>
+      </c>
+      <c r="F27" s="11">
+        <v>20</v>
+      </c>
+      <c r="G27" s="3">
+        <v>81</v>
+      </c>
+      <c r="H27" s="3">
         <v>87</v>
       </c>
       <c r="I27" s="12" t="s">
@@ -5610,7 +6393,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>8</v>
@@ -5621,10 +6404,16 @@
       <c r="D28" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28">
+      <c r="E28" s="11">
+        <v>15</v>
+      </c>
+      <c r="F28" s="11">
+        <v>20</v>
+      </c>
+      <c r="G28" s="3">
+        <v>81</v>
+      </c>
+      <c r="H28" s="3">
         <v>87</v>
       </c>
       <c r="I28" s="12" t="s">
@@ -5644,7 +6433,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>8</v>
@@ -5655,10 +6444,16 @@
       <c r="D29" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29">
+      <c r="E29" s="11">
+        <v>15</v>
+      </c>
+      <c r="F29" s="11">
+        <v>20</v>
+      </c>
+      <c r="G29" s="3">
+        <v>87</v>
+      </c>
+      <c r="H29" s="3">
         <v>999</v>
       </c>
       <c r="I29" s="12" t="s">
@@ -5678,7 +6473,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>8</v>
@@ -5689,10 +6484,16 @@
       <c r="D30" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30">
+      <c r="E30" s="11">
+        <v>15</v>
+      </c>
+      <c r="F30" s="11">
+        <v>20</v>
+      </c>
+      <c r="G30" s="3">
+        <v>87</v>
+      </c>
+      <c r="H30" s="3">
         <v>999</v>
       </c>
       <c r="I30" s="12" t="s">
@@ -5712,7 +6513,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>8</v>
@@ -5723,10 +6524,16 @@
       <c r="D31" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31">
+      <c r="E31" s="11">
+        <v>15</v>
+      </c>
+      <c r="F31" s="11">
+        <v>20</v>
+      </c>
+      <c r="G31" s="3">
+        <v>87</v>
+      </c>
+      <c r="H31" s="3">
         <v>999</v>
       </c>
       <c r="I31" s="12" t="s">
@@ -5751,10 +6558,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7BD4A98-08F3-4296-A3AF-A14341ED711F}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5771,25 +6578,25 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>0</v>
@@ -5818,7 +6625,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -5829,9 +6636,15 @@
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="E2" s="3">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
       <c r="H2" s="17">
         <v>49</v>
       </c>
@@ -5857,7 +6670,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
@@ -5868,9 +6681,15 @@
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="E3" s="3">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
       <c r="H3" s="17">
         <v>49</v>
       </c>
@@ -5881,7 +6700,7 @@
         <v>110</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="4"/>
@@ -5892,7 +6711,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
@@ -5903,9 +6722,15 @@
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="E4" s="3">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
       <c r="H4" s="17">
         <v>49</v>
       </c>
@@ -5916,7 +6741,7 @@
         <v>194</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="4"/>
@@ -5927,7 +6752,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>8</v>
@@ -5938,9 +6763,15 @@
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="E5" s="3">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3">
+        <v>17</v>
+      </c>
+      <c r="G5" s="17">
+        <v>49</v>
+      </c>
       <c r="H5" s="17">
         <v>55</v>
       </c>
@@ -5951,24 +6782,24 @@
         <v>109</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L5" s="5">
         <v>37282</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N5" s="5">
         <v>43726</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
@@ -5979,9 +6810,15 @@
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="E6" s="3">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3">
+        <v>17</v>
+      </c>
+      <c r="G6" s="17">
+        <v>49</v>
+      </c>
       <c r="H6" s="17">
         <v>55</v>
       </c>
@@ -5992,7 +6829,7 @@
         <v>140</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="4"/>
@@ -6003,7 +6840,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
@@ -6014,9 +6851,15 @@
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="E7" s="3">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3">
+        <v>17</v>
+      </c>
+      <c r="G7" s="17">
+        <v>49</v>
+      </c>
       <c r="H7" s="17">
         <v>55</v>
       </c>
@@ -6027,7 +6870,7 @@
         <v>248</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="4"/>
@@ -6038,7 +6881,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
@@ -6049,9 +6892,15 @@
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="E8" s="3">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3">
+        <v>55</v>
+      </c>
       <c r="H8" s="17">
         <v>61</v>
       </c>
@@ -6062,7 +6911,7 @@
         <v>121</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L8" s="5">
         <v>41184</v>
@@ -6079,7 +6928,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
@@ -6090,9 +6939,15 @@
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="E9" s="3">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3">
+        <v>17</v>
+      </c>
+      <c r="G9" s="3">
+        <v>55</v>
+      </c>
       <c r="H9" s="17">
         <v>61</v>
       </c>
@@ -6103,7 +6958,7 @@
         <v>152</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="4" t="s">
@@ -6118,7 +6973,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
@@ -6129,9 +6984,15 @@
       <c r="D10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="E10" s="3">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3">
+        <v>55</v>
+      </c>
       <c r="H10" s="17">
         <v>61</v>
       </c>
@@ -6142,7 +7003,7 @@
         <v>269</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L10" s="5">
         <v>41184</v>
@@ -6159,7 +7020,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>8</v>
@@ -6170,9 +7031,15 @@
       <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="E11" s="3">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3">
+        <v>17</v>
+      </c>
+      <c r="G11" s="3">
+        <v>61</v>
+      </c>
       <c r="H11" s="17">
         <v>67</v>
       </c>
@@ -6183,7 +7050,7 @@
         <v>153</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L11" s="5">
         <v>37332</v>
@@ -6200,7 +7067,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>8</v>
@@ -6211,9 +7078,15 @@
       <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="E12" s="3">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3">
+        <v>17</v>
+      </c>
+      <c r="G12" s="3">
+        <v>61</v>
+      </c>
       <c r="H12" s="17">
         <v>67</v>
       </c>
@@ -6224,7 +7097,7 @@
         <v>153</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="4" t="s">
@@ -6237,7 +7110,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>8</v>
@@ -6248,9 +7121,15 @@
       <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="E13" s="3">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3">
+        <v>17</v>
+      </c>
+      <c r="G13" s="3">
+        <v>61</v>
+      </c>
       <c r="H13" s="17">
         <v>67</v>
       </c>
@@ -6261,7 +7140,7 @@
         <v>275</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L13" s="5">
         <v>37332</v>
@@ -6278,7 +7157,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>8</v>
@@ -6289,9 +7168,15 @@
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="E14" s="3">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3">
+        <v>17</v>
+      </c>
+      <c r="G14" s="3">
+        <v>67</v>
+      </c>
       <c r="H14" s="17">
         <v>73</v>
       </c>
@@ -6302,7 +7187,7 @@
         <v>138</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L14" s="5">
         <v>40788</v>
@@ -6319,7 +7204,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>8</v>
@@ -6330,9 +7215,15 @@
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="E15" s="3">
+        <v>13</v>
+      </c>
+      <c r="F15" s="3">
+        <v>17</v>
+      </c>
+      <c r="G15" s="3">
+        <v>67</v>
+      </c>
       <c r="H15" s="17">
         <v>73</v>
       </c>
@@ -6343,7 +7234,7 @@
         <v>161</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L15" s="5">
         <v>40788</v>
@@ -6360,7 +7251,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>8</v>
@@ -6371,9 +7262,15 @@
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="E16" s="3">
+        <v>13</v>
+      </c>
+      <c r="F16" s="3">
+        <v>17</v>
+      </c>
+      <c r="G16" s="3">
+        <v>67</v>
+      </c>
       <c r="H16" s="17">
         <v>73</v>
       </c>
@@ -6384,13 +7281,13 @@
         <v>290</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L16" s="5">
         <v>37536</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N16" s="5">
         <v>43759</v>
@@ -6401,7 +7298,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>8</v>
@@ -6412,9 +7309,15 @@
       <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="E17" s="3">
+        <v>13</v>
+      </c>
+      <c r="F17" s="3">
+        <v>17</v>
+      </c>
+      <c r="G17" s="3">
+        <v>73</v>
+      </c>
       <c r="H17" s="17">
         <v>81</v>
       </c>
@@ -6425,7 +7328,7 @@
         <v>143</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="4"/>
@@ -6436,7 +7339,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>8</v>
@@ -6447,9 +7350,15 @@
       <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="E18" s="3">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3">
+        <v>17</v>
+      </c>
+      <c r="G18" s="3">
+        <v>73</v>
+      </c>
       <c r="H18" s="17">
         <v>81</v>
       </c>
@@ -6460,7 +7369,7 @@
         <v>175</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L18" s="5">
         <v>37526</v>
@@ -6477,7 +7386,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>8</v>
@@ -6488,9 +7397,15 @@
       <c r="D19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="E19" s="3">
+        <v>13</v>
+      </c>
+      <c r="F19" s="3">
+        <v>17</v>
+      </c>
+      <c r="G19" s="3">
+        <v>73</v>
+      </c>
       <c r="H19" s="17">
         <v>81</v>
       </c>
@@ -6501,7 +7416,7 @@
         <v>317</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="4" t="s">
@@ -6516,7 +7431,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>8</v>
@@ -6527,9 +7442,15 @@
       <c r="D20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="E20" s="3">
+        <v>13</v>
+      </c>
+      <c r="F20" s="3">
+        <v>17</v>
+      </c>
+      <c r="G20" s="3">
+        <v>81</v>
+      </c>
       <c r="H20" s="17">
         <v>89</v>
       </c>
@@ -6540,7 +7461,7 @@
         <v>165</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="4" t="s">
@@ -6553,7 +7474,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>8</v>
@@ -6564,9 +7485,15 @@
       <c r="D21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="E21" s="3">
+        <v>13</v>
+      </c>
+      <c r="F21" s="3">
+        <v>17</v>
+      </c>
+      <c r="G21" s="3">
+        <v>81</v>
+      </c>
       <c r="H21" s="17">
         <v>89</v>
       </c>
@@ -6577,7 +7504,7 @@
         <v>192</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="4" t="s">
@@ -6590,7 +7517,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>8</v>
@@ -6601,9 +7528,15 @@
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="E22" s="3">
+        <v>13</v>
+      </c>
+      <c r="F22" s="3">
+        <v>17</v>
+      </c>
+      <c r="G22" s="3">
+        <v>81</v>
+      </c>
       <c r="H22" s="17">
         <v>89</v>
       </c>
@@ -6614,7 +7547,7 @@
         <v>357</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="4" t="s">
@@ -6627,7 +7560,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>8</v>
@@ -6638,9 +7571,15 @@
       <c r="D23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="E23" s="3">
+        <v>13</v>
+      </c>
+      <c r="F23" s="3">
+        <v>17</v>
+      </c>
+      <c r="G23" s="3">
+        <v>89</v>
+      </c>
       <c r="H23" s="17">
         <v>96</v>
       </c>
@@ -6651,7 +7590,7 @@
         <v>162</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L23" s="5">
         <v>39327</v>
@@ -6666,7 +7605,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>8</v>
@@ -6677,9 +7616,15 @@
       <c r="D24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="E24" s="3">
+        <v>13</v>
+      </c>
+      <c r="F24" s="3">
+        <v>17</v>
+      </c>
+      <c r="G24" s="3">
+        <v>89</v>
+      </c>
       <c r="H24" s="17">
         <v>96</v>
       </c>
@@ -6690,7 +7635,7 @@
         <v>194</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L24" s="5">
         <v>37446</v>
@@ -6707,7 +7652,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>8</v>
@@ -6718,9 +7663,15 @@
       <c r="D25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="E25" s="3">
+        <v>13</v>
+      </c>
+      <c r="F25" s="3">
+        <v>17</v>
+      </c>
+      <c r="G25" s="3">
+        <v>89</v>
+      </c>
       <c r="H25" s="17">
         <v>96</v>
       </c>
@@ -6731,7 +7682,7 @@
         <v>354</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L25" s="5">
         <v>37446</v>
@@ -6748,7 +7699,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>8</v>
@@ -6759,9 +7710,15 @@
       <c r="D26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="E26" s="3">
+        <v>13</v>
+      </c>
+      <c r="F26" s="3">
+        <v>17</v>
+      </c>
+      <c r="G26" s="3">
+        <v>96</v>
+      </c>
       <c r="H26" s="17">
         <v>102</v>
       </c>
@@ -6772,7 +7729,7 @@
         <v>176</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L26" s="5">
         <v>37227</v>
@@ -6789,7 +7746,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>8</v>
@@ -6800,9 +7757,15 @@
       <c r="D27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="E27" s="3">
+        <v>13</v>
+      </c>
+      <c r="F27" s="3">
+        <v>17</v>
+      </c>
+      <c r="G27" s="3">
+        <v>96</v>
+      </c>
       <c r="H27" s="17">
         <v>102</v>
       </c>
@@ -6813,7 +7776,7 @@
         <v>201</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L27" s="5">
         <v>37227</v>
@@ -6830,7 +7793,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>8</v>
@@ -6841,9 +7804,15 @@
       <c r="D28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="E28" s="3">
+        <v>13</v>
+      </c>
+      <c r="F28" s="3">
+        <v>17</v>
+      </c>
+      <c r="G28" s="3">
+        <v>96</v>
+      </c>
       <c r="H28" s="17">
         <v>102</v>
       </c>
@@ -6854,7 +7823,7 @@
         <v>377</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L28" s="5">
         <v>37227</v>
@@ -6871,7 +7840,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>8</v>
@@ -6882,9 +7851,15 @@
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="E29" s="3">
+        <v>13</v>
+      </c>
+      <c r="F29" s="3">
+        <v>17</v>
+      </c>
+      <c r="G29" s="3">
+        <v>102</v>
+      </c>
       <c r="H29" s="17">
         <v>999</v>
       </c>
@@ -6895,7 +7870,7 @@
         <v>162</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="L29" s="5"/>
       <c r="M29" s="4"/>
@@ -6906,7 +7881,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>8</v>
@@ -6917,9 +7892,15 @@
       <c r="D30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="E30" s="3">
+        <v>13</v>
+      </c>
+      <c r="F30" s="3">
+        <v>17</v>
+      </c>
+      <c r="G30" s="3">
+        <v>102</v>
+      </c>
       <c r="H30" s="17">
         <v>999</v>
       </c>
@@ -6930,7 +7911,7 @@
         <v>195</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="L30" s="5"/>
       <c r="M30" s="4"/>
@@ -6941,7 +7922,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>8</v>
@@ -6952,9 +7933,15 @@
       <c r="D31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="E31" s="3">
+        <v>13</v>
+      </c>
+      <c r="F31" s="3">
+        <v>17</v>
+      </c>
+      <c r="G31" s="3">
+        <v>102</v>
+      </c>
       <c r="H31" s="17">
         <v>999</v>
       </c>
@@ -6965,7 +7952,7 @@
         <v>357</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L31" s="5"/>
       <c r="M31" s="4" t="s">
@@ -6975,6 +7962,15 @@
       <c r="O31" s="16" t="s">
         <v>58</v>
       </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6983,10 +7979,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C3D9D4-F036-48B2-893F-5441C8E76D19}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7003,25 +7999,25 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>0</v>
@@ -7049,6 +8045,9 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
@@ -7058,9 +8057,15 @@
       <c r="D2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="E2" s="3">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
       <c r="H2" s="17">
         <v>40</v>
       </c>
@@ -7071,7 +8076,7 @@
         <v>55</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="6" t="s">
@@ -7085,6 +8090,9 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
@@ -7094,9 +8102,15 @@
       <c r="D3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="E3" s="3">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
       <c r="H3" s="17">
         <v>40</v>
       </c>
@@ -7107,7 +8121,7 @@
         <v>67</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="6" t="s">
@@ -7120,7 +8134,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
@@ -7130,9 +8147,15 @@
       <c r="D4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="E4" s="3">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3">
+        <v>17</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
       <c r="H4" s="17">
         <v>40</v>
       </c>
@@ -7143,7 +8166,7 @@
         <v>122</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="6" t="s">
@@ -7157,6 +8180,9 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
@@ -7166,10 +8192,16 @@
       <c r="D5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="17">
+      <c r="E5" s="3">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3">
+        <v>17</v>
+      </c>
+      <c r="G5" s="17">
+        <v>40</v>
+      </c>
+      <c r="H5" s="3">
         <v>45</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -7179,7 +8211,7 @@
         <v>65</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L5" s="5">
         <v>38535</v>
@@ -7195,6 +8227,9 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -7204,10 +8239,16 @@
       <c r="D6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="17">
+      <c r="E6" s="3">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3">
+        <v>17</v>
+      </c>
+      <c r="G6" s="17">
+        <v>40</v>
+      </c>
+      <c r="H6" s="3">
         <v>45</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -7217,7 +8258,7 @@
         <v>78</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="6"/>
@@ -7227,6 +8268,9 @@
       <c r="O6" s="16"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -7236,10 +8280,16 @@
       <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="17">
+      <c r="E7" s="3">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3">
+        <v>17</v>
+      </c>
+      <c r="G7" s="17">
+        <v>40</v>
+      </c>
+      <c r="H7" s="3">
         <v>45</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -7249,7 +8299,7 @@
         <v>142</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="6"/>
@@ -7259,6 +8309,9 @@
       <c r="O7" s="16"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
@@ -7268,10 +8321,16 @@
       <c r="D8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="17">
+      <c r="E8" s="3">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3">
+        <v>45</v>
+      </c>
+      <c r="H8" s="3">
         <v>49</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -7297,6 +8356,9 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
@@ -7306,10 +8368,16 @@
       <c r="D9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="17">
+      <c r="E9" s="3">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3">
+        <v>17</v>
+      </c>
+      <c r="G9" s="3">
+        <v>45</v>
+      </c>
+      <c r="H9" s="3">
         <v>49</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -7319,7 +8387,7 @@
         <v>94</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="6" t="s">
@@ -7333,6 +8401,9 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -7342,10 +8413,16 @@
       <c r="D10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="17">
+      <c r="E10" s="3">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3">
+        <v>45</v>
+      </c>
+      <c r="H10" s="3">
         <v>49</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -7371,6 +8448,9 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>93</v>
+      </c>
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -7380,10 +8460,16 @@
       <c r="D11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="17">
+      <c r="E11" s="3">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3">
+        <v>17</v>
+      </c>
+      <c r="G11" s="3">
+        <v>49</v>
+      </c>
+      <c r="H11" s="3">
         <v>55</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -7393,7 +8479,7 @@
         <v>88</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L11" s="5">
         <v>37463</v>
@@ -7409,6 +8495,9 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
       <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
@@ -7418,10 +8507,16 @@
       <c r="D12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="17">
+      <c r="E12" s="3">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3">
+        <v>17</v>
+      </c>
+      <c r="G12" s="3">
+        <v>49</v>
+      </c>
+      <c r="H12" s="3">
         <v>55</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -7431,7 +8526,7 @@
         <v>108</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L12" s="5">
         <v>40850</v>
@@ -7447,6 +8542,9 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
@@ -7456,10 +8554,16 @@
       <c r="D13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="17">
+      <c r="E13" s="3">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3">
+        <v>17</v>
+      </c>
+      <c r="G13" s="3">
+        <v>49</v>
+      </c>
+      <c r="H13" s="3">
         <v>55</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -7469,7 +8573,7 @@
         <v>194</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L13" s="5">
         <v>40850</v>
@@ -7485,6 +8589,9 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
       <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
@@ -7494,10 +8601,16 @@
       <c r="D14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="17">
+      <c r="E14" s="3">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3">
+        <v>17</v>
+      </c>
+      <c r="G14" s="3">
+        <v>55</v>
+      </c>
+      <c r="H14" s="3">
         <v>59</v>
       </c>
       <c r="I14" s="4" t="s">
@@ -7507,7 +8620,7 @@
         <v>85</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="6"/>
@@ -7517,6 +8630,9 @@
       <c r="O14" s="16"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
       <c r="B15" s="3" t="s">
         <v>8</v>
       </c>
@@ -7526,10 +8642,16 @@
       <c r="D15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="17">
+      <c r="E15" s="3">
+        <v>13</v>
+      </c>
+      <c r="F15" s="3">
+        <v>17</v>
+      </c>
+      <c r="G15" s="3">
+        <v>55</v>
+      </c>
+      <c r="H15" s="3">
         <v>59</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -7539,7 +8661,7 @@
         <v>106</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="6" t="s">
@@ -7553,6 +8675,9 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
       <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
@@ -7562,10 +8687,16 @@
       <c r="D16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="17">
+      <c r="E16" s="3">
+        <v>13</v>
+      </c>
+      <c r="F16" s="3">
+        <v>17</v>
+      </c>
+      <c r="G16" s="3">
+        <v>55</v>
+      </c>
+      <c r="H16" s="3">
         <v>59</v>
       </c>
       <c r="I16" s="4" t="s">
@@ -7575,7 +8706,7 @@
         <v>190</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="6" t="s">
@@ -7588,7 +8719,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
       <c r="B17" s="3" t="s">
         <v>8</v>
       </c>
@@ -7598,10 +8732,16 @@
       <c r="D17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="17">
+      <c r="E17" s="3">
+        <v>13</v>
+      </c>
+      <c r="F17" s="3">
+        <v>17</v>
+      </c>
+      <c r="G17" s="3">
+        <v>59</v>
+      </c>
+      <c r="H17" s="3">
         <v>64</v>
       </c>
       <c r="I17" s="4" t="s">
@@ -7611,11 +8751,11 @@
         <v>97</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N17" s="5">
         <v>41262</v>
@@ -7624,7 +8764,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>93</v>
+      </c>
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
@@ -7634,10 +8777,16 @@
       <c r="D18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="17">
+      <c r="E18" s="3">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3">
+        <v>17</v>
+      </c>
+      <c r="G18" s="3">
+        <v>59</v>
+      </c>
+      <c r="H18" s="3">
         <v>64</v>
       </c>
       <c r="I18" s="4" t="s">
@@ -7647,7 +8796,7 @@
         <v>113</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L18" s="5">
         <v>37996</v>
@@ -7662,7 +8811,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>93</v>
+      </c>
       <c r="B19" s="3" t="s">
         <v>8</v>
       </c>
@@ -7672,10 +8824,16 @@
       <c r="D19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="17">
+      <c r="E19" s="3">
+        <v>13</v>
+      </c>
+      <c r="F19" s="3">
+        <v>17</v>
+      </c>
+      <c r="G19" s="3">
+        <v>59</v>
+      </c>
+      <c r="H19" s="3">
         <v>64</v>
       </c>
       <c r="I19" s="4" t="s">
@@ -7685,11 +8843,11 @@
         <v>203</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N19" s="5">
         <v>41262</v>
@@ -7698,7 +8856,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>93</v>
+      </c>
       <c r="B20" s="3" t="s">
         <v>8</v>
       </c>
@@ -7708,10 +8869,16 @@
       <c r="D20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="17">
+      <c r="E20" s="3">
+        <v>13</v>
+      </c>
+      <c r="F20" s="3">
+        <v>17</v>
+      </c>
+      <c r="G20" s="3">
+        <v>64</v>
+      </c>
+      <c r="H20" s="3">
         <v>71</v>
       </c>
       <c r="I20" s="4" t="s">
@@ -7721,7 +8888,7 @@
         <v>97</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="6"/>
@@ -7730,7 +8897,10 @@
       </c>
       <c r="O20" s="16"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
       <c r="B21" s="3" t="s">
         <v>8</v>
       </c>
@@ -7740,10 +8910,16 @@
       <c r="D21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="17">
+      <c r="E21" s="3">
+        <v>13</v>
+      </c>
+      <c r="F21" s="3">
+        <v>17</v>
+      </c>
+      <c r="G21" s="3">
+        <v>64</v>
+      </c>
+      <c r="H21" s="3">
         <v>71</v>
       </c>
       <c r="I21" s="4" t="s">
@@ -7753,7 +8929,7 @@
         <v>120</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="6"/>
@@ -7762,7 +8938,10 @@
       </c>
       <c r="O21" s="16"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
       <c r="B22" s="3" t="s">
         <v>8</v>
       </c>
@@ -7772,10 +8951,16 @@
       <c r="D22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="17">
+      <c r="E22" s="3">
+        <v>13</v>
+      </c>
+      <c r="F22" s="3">
+        <v>17</v>
+      </c>
+      <c r="G22" s="3">
+        <v>64</v>
+      </c>
+      <c r="H22" s="3">
         <v>71</v>
       </c>
       <c r="I22" s="4" t="s">
@@ -7785,7 +8970,7 @@
         <v>216</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="6"/>
@@ -7794,7 +8979,10 @@
       </c>
       <c r="O22" s="16"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
       <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
@@ -7804,10 +8992,16 @@
       <c r="D23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="17">
+      <c r="E23" s="3">
+        <v>13</v>
+      </c>
+      <c r="F23" s="3">
+        <v>17</v>
+      </c>
+      <c r="G23" s="3">
+        <v>71</v>
+      </c>
+      <c r="H23" s="3">
         <v>76</v>
       </c>
       <c r="I23" s="4" t="s">
@@ -7817,7 +9011,7 @@
         <v>101</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="6" t="s">
@@ -7830,7 +9024,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
       <c r="B24" s="3" t="s">
         <v>8</v>
       </c>
@@ -7840,10 +9037,16 @@
       <c r="D24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="17">
+      <c r="E24" s="3">
+        <v>13</v>
+      </c>
+      <c r="F24" s="3">
+        <v>17</v>
+      </c>
+      <c r="G24" s="3">
+        <v>71</v>
+      </c>
+      <c r="H24" s="3">
         <v>76</v>
       </c>
       <c r="I24" s="4" t="s">
@@ -7853,7 +9056,7 @@
         <v>130</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L24" s="5">
         <v>37332</v>
@@ -7868,7 +9071,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>93</v>
+      </c>
       <c r="B25" s="3" t="s">
         <v>8</v>
       </c>
@@ -7878,10 +9084,16 @@
       <c r="D25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="17">
+      <c r="E25" s="3">
+        <v>13</v>
+      </c>
+      <c r="F25" s="3">
+        <v>17</v>
+      </c>
+      <c r="G25" s="3">
+        <v>71</v>
+      </c>
+      <c r="H25" s="3">
         <v>76</v>
       </c>
       <c r="I25" s="4" t="s">
@@ -7891,7 +9103,7 @@
         <v>225</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L25" s="5">
         <v>37332</v>
@@ -7903,10 +9115,13 @@
         <v>43537</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
       <c r="B26" s="3" t="s">
         <v>8</v>
       </c>
@@ -7916,10 +9131,16 @@
       <c r="D26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="17">
+      <c r="E26" s="3">
+        <v>13</v>
+      </c>
+      <c r="F26" s="3">
+        <v>17</v>
+      </c>
+      <c r="G26" s="3">
+        <v>76</v>
+      </c>
+      <c r="H26" s="3">
         <v>81</v>
       </c>
       <c r="I26" s="4" t="s">
@@ -7929,7 +9150,7 @@
         <v>102</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="6"/>
@@ -7938,7 +9159,10 @@
       </c>
       <c r="O26" s="16"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
       <c r="B27" s="3" t="s">
         <v>8</v>
       </c>
@@ -7948,10 +9172,16 @@
       <c r="D27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="17">
+      <c r="E27" s="3">
+        <v>13</v>
+      </c>
+      <c r="F27" s="3">
+        <v>17</v>
+      </c>
+      <c r="G27" s="3">
+        <v>76</v>
+      </c>
+      <c r="H27" s="3">
         <v>81</v>
       </c>
       <c r="I27" s="4" t="s">
@@ -7961,7 +9191,7 @@
         <v>127</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="6"/>
@@ -7970,7 +9200,10 @@
       </c>
       <c r="O27" s="16"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>93</v>
+      </c>
       <c r="B28" s="3" t="s">
         <v>8</v>
       </c>
@@ -7980,10 +9213,16 @@
       <c r="D28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="17">
+      <c r="E28" s="3">
+        <v>13</v>
+      </c>
+      <c r="F28" s="3">
+        <v>17</v>
+      </c>
+      <c r="G28" s="3">
+        <v>76</v>
+      </c>
+      <c r="H28" s="3">
         <v>81</v>
       </c>
       <c r="I28" s="4" t="s">
@@ -7993,7 +9232,7 @@
         <v>229</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="L28" s="5"/>
       <c r="M28" s="6"/>
@@ -8002,7 +9241,10 @@
       </c>
       <c r="O28" s="16"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
       <c r="B29" s="3" t="s">
         <v>8</v>
       </c>
@@ -8012,10 +9254,16 @@
       <c r="D29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="17">
+      <c r="E29" s="3">
+        <v>13</v>
+      </c>
+      <c r="F29" s="3">
+        <v>17</v>
+      </c>
+      <c r="G29" s="3">
+        <v>81</v>
+      </c>
+      <c r="H29" s="3">
         <v>999</v>
       </c>
       <c r="I29" s="4" t="s">
@@ -8025,7 +9273,7 @@
         <v>103</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
@@ -8034,7 +9282,10 @@
       </c>
       <c r="O29" s="16"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>93</v>
+      </c>
       <c r="B30" s="3" t="s">
         <v>8</v>
       </c>
@@ -8044,10 +9295,16 @@
       <c r="D30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="17">
+      <c r="E30" s="3">
+        <v>13</v>
+      </c>
+      <c r="F30" s="3">
+        <v>17</v>
+      </c>
+      <c r="G30" s="3">
+        <v>81</v>
+      </c>
+      <c r="H30" s="3">
         <v>999</v>
       </c>
       <c r="I30" s="4" t="s">
@@ -8057,7 +9314,7 @@
         <v>129</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="L30" s="5"/>
       <c r="M30" s="6"/>
@@ -8066,7 +9323,10 @@
       </c>
       <c r="O30" s="16"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>93</v>
+      </c>
       <c r="B31" s="3" t="s">
         <v>8</v>
       </c>
@@ -8076,10 +9336,16 @@
       <c r="D31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="17">
+      <c r="E31" s="3">
+        <v>13</v>
+      </c>
+      <c r="F31" s="3">
+        <v>17</v>
+      </c>
+      <c r="G31" s="3">
+        <v>81</v>
+      </c>
+      <c r="H31" s="3">
         <v>999</v>
       </c>
       <c r="I31" s="4" t="s">
@@ -8089,7 +9355,7 @@
         <v>232</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="L31" s="5"/>
       <c r="M31" s="6"/>
@@ -8097,6 +9363,18 @@
         <v>43391</v>
       </c>
       <c r="O31" s="16"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/owlcms/src/test/resources/testData/records/EWFRecords.xlsx
+++ b/owlcms/src/test/resources/testData/records/EWFRecords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms4\owlcms\src\test\resources\testData\records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08BAA1C-1DCE-4D16-8554-5F083DA6C6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC40ED1D-BB1D-4428-AADC-B5F66BDF49E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{DF28E3F7-8829-40AC-8AE2-BA2E1FA35BEA}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{DF28E3F7-8829-40AC-8AE2-BA2E1FA35BEA}"/>
   </bookViews>
   <sheets>
     <sheet name="EWF SR M" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="99">
   <si>
     <t>bwcat</t>
   </si>
@@ -323,6 +323,18 @@
   </si>
   <si>
     <t>Moscow-RUS</t>
+  </si>
+  <si>
+    <t>&gt;81</t>
+  </si>
+  <si>
+    <t>&gt;102</t>
+  </si>
+  <si>
+    <t>&gt;87</t>
+  </si>
+  <si>
+    <t>&gt;109</t>
   </si>
 </sst>
 </file>
@@ -752,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3A71D5-0912-46D0-92EA-6C23C6C08BFF}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1986,8 +1998,8 @@
       <c r="G29" s="3">
         <v>109</v>
       </c>
-      <c r="H29" s="3">
-        <v>999</v>
+      <c r="H29" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>11</v>
@@ -2033,8 +2045,8 @@
       <c r="G30" s="3">
         <v>109</v>
       </c>
-      <c r="H30" s="3">
-        <v>999</v>
+      <c r="H30" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>13</v>
@@ -2080,8 +2092,8 @@
       <c r="G31" s="3">
         <v>109</v>
       </c>
-      <c r="H31" s="3">
-        <v>999</v>
+      <c r="H31" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>14</v>
@@ -2115,7 +2127,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="H30" sqref="H30:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3342,8 +3354,8 @@
       <c r="G29" s="3">
         <v>87</v>
       </c>
-      <c r="H29" s="3">
-        <v>999</v>
+      <c r="H29" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>11</v>
@@ -3389,8 +3401,8 @@
       <c r="G30" s="3">
         <v>87</v>
       </c>
-      <c r="H30" s="3">
-        <v>999</v>
+      <c r="H30" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>13</v>
@@ -3436,8 +3448,8 @@
       <c r="G31" s="3">
         <v>87</v>
       </c>
-      <c r="H31" s="3">
-        <v>999</v>
+      <c r="H31" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>14</v>
@@ -3472,7 +3484,7 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="H30" sqref="H30:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5088,8 +5100,8 @@
       <c r="G29" s="3">
         <v>109</v>
       </c>
-      <c r="H29">
-        <v>999</v>
+      <c r="H29" t="s">
+        <v>98</v>
       </c>
       <c r="I29" t="s">
         <v>11</v>
@@ -5148,8 +5160,8 @@
       <c r="G30" s="3">
         <v>109</v>
       </c>
-      <c r="H30">
-        <v>999</v>
+      <c r="H30" t="s">
+        <v>98</v>
       </c>
       <c r="I30" t="s">
         <v>13</v>
@@ -5199,8 +5211,8 @@
       <c r="G31" s="3">
         <v>109</v>
       </c>
-      <c r="H31">
-        <v>999</v>
+      <c r="H31" t="s">
+        <v>98</v>
       </c>
       <c r="I31" t="s">
         <v>14</v>
@@ -5247,7 +5259,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="H30" sqref="H30:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6453,8 +6465,8 @@
       <c r="G29" s="3">
         <v>87</v>
       </c>
-      <c r="H29" s="3">
-        <v>999</v>
+      <c r="H29" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>11</v>
@@ -6493,8 +6505,8 @@
       <c r="G30" s="3">
         <v>87</v>
       </c>
-      <c r="H30" s="3">
-        <v>999</v>
+      <c r="H30" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>13</v>
@@ -6533,8 +6545,8 @@
       <c r="G31" s="3">
         <v>87</v>
       </c>
-      <c r="H31" s="3">
-        <v>999</v>
+      <c r="H31" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>14</v>
@@ -6561,7 +6573,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="H30" sqref="H30:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7860,8 +7872,8 @@
       <c r="G29" s="3">
         <v>102</v>
       </c>
-      <c r="H29" s="17">
-        <v>999</v>
+      <c r="H29" s="17" t="s">
+        <v>96</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>11</v>
@@ -7901,8 +7913,8 @@
       <c r="G30" s="3">
         <v>102</v>
       </c>
-      <c r="H30" s="17">
-        <v>999</v>
+      <c r="H30" s="17" t="s">
+        <v>96</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>13</v>
@@ -7942,8 +7954,8 @@
       <c r="G31" s="3">
         <v>102</v>
       </c>
-      <c r="H31" s="17">
-        <v>999</v>
+      <c r="H31" s="17" t="s">
+        <v>96</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>14</v>
@@ -7981,8 +7993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C3D9D4-F036-48B2-893F-5441C8E76D19}">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9263,8 +9275,8 @@
       <c r="G29" s="3">
         <v>81</v>
       </c>
-      <c r="H29" s="3">
-        <v>999</v>
+      <c r="H29" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>11</v>
@@ -9304,8 +9316,8 @@
       <c r="G30" s="3">
         <v>81</v>
       </c>
-      <c r="H30" s="3">
-        <v>999</v>
+      <c r="H30" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>13</v>
@@ -9345,8 +9357,8 @@
       <c r="G31" s="3">
         <v>81</v>
       </c>
-      <c r="H31" s="3">
-        <v>999</v>
+      <c r="H31" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>14</v>
